--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il12b</t>
+  </si>
+  <si>
+    <t>Il12rb2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il12b</t>
-  </si>
-  <si>
-    <t>Il12rb2</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2955116666666667</v>
+        <v>0.01839766666666667</v>
       </c>
       <c r="H2">
-        <v>0.8865350000000001</v>
+        <v>0.055193</v>
       </c>
       <c r="I2">
-        <v>0.2653514653168049</v>
+        <v>0.01206405690060863</v>
       </c>
       <c r="J2">
-        <v>0.2653514653168049</v>
+        <v>0.01206405690060863</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2736056666666667</v>
+        <v>0.2730896666666667</v>
       </c>
       <c r="N2">
-        <v>0.820817</v>
+        <v>0.819269</v>
       </c>
       <c r="O2">
-        <v>0.1255962177470146</v>
+        <v>0.09119771294686956</v>
       </c>
       <c r="P2">
-        <v>0.1255962177470146</v>
+        <v>0.09119771294686957</v>
       </c>
       <c r="Q2">
-        <v>0.08085366656611112</v>
+        <v>0.005024212657444444</v>
       </c>
       <c r="R2">
-        <v>0.7276829990950001</v>
+        <v>0.045217913917</v>
       </c>
       <c r="S2">
-        <v>0.03332714041741881</v>
+        <v>0.001100214398196407</v>
       </c>
       <c r="T2">
-        <v>0.03332714041741881</v>
+        <v>0.001100214398196407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2955116666666667</v>
+        <v>0.01839766666666667</v>
       </c>
       <c r="H3">
-        <v>0.8865350000000001</v>
+        <v>0.055193</v>
       </c>
       <c r="I3">
-        <v>0.2653514653168049</v>
+        <v>0.01206405690060863</v>
       </c>
       <c r="J3">
-        <v>0.2653514653168049</v>
+        <v>0.01206405690060863</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.793045</v>
       </c>
       <c r="O3">
-        <v>0.1213467222330692</v>
+        <v>0.08827856328501404</v>
       </c>
       <c r="P3">
-        <v>0.1213467222330692</v>
+        <v>0.08827856328501404</v>
       </c>
       <c r="Q3">
-        <v>0.07811801656388889</v>
+        <v>0.004863392520555555</v>
       </c>
       <c r="R3">
-        <v>0.7030621490750001</v>
+        <v>0.043770532685</v>
       </c>
       <c r="S3">
-        <v>0.03219953055593622</v>
+        <v>0.00106499761057439</v>
       </c>
       <c r="T3">
-        <v>0.03219953055593622</v>
+        <v>0.00106499761057439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2955116666666667</v>
+        <v>0.01839766666666667</v>
       </c>
       <c r="H4">
-        <v>0.8865350000000001</v>
+        <v>0.055193</v>
       </c>
       <c r="I4">
-        <v>0.2653514653168049</v>
+        <v>0.01206405690060863</v>
       </c>
       <c r="J4">
-        <v>0.2653514653168049</v>
+        <v>0.01206405690060863</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9069966666666667</v>
+        <v>1.063747333333333</v>
       </c>
       <c r="N4">
-        <v>2.72099</v>
+        <v>3.191242</v>
       </c>
       <c r="O4">
-        <v>0.4163486532655258</v>
+        <v>0.355236157916379</v>
       </c>
       <c r="P4">
-        <v>0.4163486532655259</v>
+        <v>0.355236157916379</v>
       </c>
       <c r="Q4">
-        <v>0.2680280966277778</v>
+        <v>0.01957046885622222</v>
       </c>
       <c r="R4">
-        <v>2.41225286965</v>
+        <v>0.176134219706</v>
       </c>
       <c r="S4">
-        <v>0.1104787252266856</v>
+        <v>0.00428558922225679</v>
       </c>
       <c r="T4">
-        <v>0.1104787252266856</v>
+        <v>0.00428558922225679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2955116666666667</v>
+        <v>0.01839766666666667</v>
       </c>
       <c r="H5">
-        <v>0.8865350000000001</v>
+        <v>0.055193</v>
       </c>
       <c r="I5">
-        <v>0.2653514653168049</v>
+        <v>0.01206405690060863</v>
       </c>
       <c r="J5">
-        <v>0.2653514653168049</v>
+        <v>0.01206405690060863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7335039999999999</v>
+        <v>1.393294</v>
       </c>
       <c r="N5">
-        <v>2.200512</v>
+        <v>4.179882</v>
       </c>
       <c r="O5">
-        <v>0.3367084067543904</v>
+        <v>0.4652875658517374</v>
       </c>
       <c r="P5">
-        <v>0.3367084067543904</v>
+        <v>0.4652875658517374</v>
       </c>
       <c r="Q5">
-        <v>0.2167589895466666</v>
+        <v>0.02563335858066667</v>
       </c>
       <c r="R5">
-        <v>1.95083090592</v>
+        <v>0.230700227226</v>
       </c>
       <c r="S5">
-        <v>0.08934606911676425</v>
+        <v>0.005613255669581046</v>
       </c>
       <c r="T5">
-        <v>0.08934606911676425</v>
+        <v>0.005613255669581046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01839766666666666</v>
+        <v>1.506600666666667</v>
       </c>
       <c r="H6">
-        <v>0.05519299999999999</v>
+        <v>4.519802</v>
       </c>
       <c r="I6">
-        <v>0.01651998333425122</v>
+        <v>0.9879359430993913</v>
       </c>
       <c r="J6">
-        <v>0.01651998333425122</v>
+        <v>0.9879359430993914</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2736056666666667</v>
+        <v>0.2730896666666667</v>
       </c>
       <c r="N6">
-        <v>0.820817</v>
+        <v>0.819269</v>
       </c>
       <c r="O6">
-        <v>0.1255962177470146</v>
+        <v>0.09119771294686956</v>
       </c>
       <c r="P6">
-        <v>0.1255962177470146</v>
+        <v>0.09119771294686957</v>
       </c>
       <c r="Q6">
-        <v>0.005033705853444444</v>
+        <v>0.4114370738597778</v>
       </c>
       <c r="R6">
-        <v>0.045303352681</v>
+        <v>3.702933664738</v>
       </c>
       <c r="S6">
-        <v>0.002074847424025668</v>
+        <v>0.09009749854867313</v>
       </c>
       <c r="T6">
-        <v>0.002074847424025668</v>
+        <v>0.09009749854867316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01839766666666666</v>
+        <v>1.506600666666667</v>
       </c>
       <c r="H7">
-        <v>0.05519299999999999</v>
+        <v>4.519802</v>
       </c>
       <c r="I7">
-        <v>0.01651998333425122</v>
+        <v>0.9879359430993913</v>
       </c>
       <c r="J7">
-        <v>0.01651998333425122</v>
+        <v>0.9879359430993914</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>0.793045</v>
       </c>
       <c r="O7">
-        <v>0.1213467222330692</v>
+        <v>0.08827856328501404</v>
       </c>
       <c r="P7">
-        <v>0.1213467222330692</v>
+        <v>0.08827856328501404</v>
       </c>
       <c r="Q7">
-        <v>0.004863392520555555</v>
+        <v>0.3982673752322223</v>
       </c>
       <c r="R7">
-        <v>0.043770532685</v>
+        <v>3.58440637709</v>
       </c>
       <c r="S7">
-        <v>0.002004645828956316</v>
+        <v>0.08721356567443965</v>
       </c>
       <c r="T7">
-        <v>0.002004645828956316</v>
+        <v>0.08721356567443965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01839766666666666</v>
+        <v>1.506600666666667</v>
       </c>
       <c r="H8">
-        <v>0.05519299999999999</v>
+        <v>4.519802</v>
       </c>
       <c r="I8">
-        <v>0.01651998333425122</v>
+        <v>0.9879359430993913</v>
       </c>
       <c r="J8">
-        <v>0.01651998333425122</v>
+        <v>0.9879359430993914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9069966666666667</v>
+        <v>1.063747333333333</v>
       </c>
       <c r="N8">
-        <v>2.72099</v>
+        <v>3.191242</v>
       </c>
       <c r="O8">
-        <v>0.4163486532655258</v>
+        <v>0.355236157916379</v>
       </c>
       <c r="P8">
-        <v>0.4163486532655259</v>
+        <v>0.355236157916379</v>
       </c>
       <c r="Q8">
-        <v>0.01668662234111111</v>
+        <v>1.602642441564889</v>
       </c>
       <c r="R8">
-        <v>0.15017960107</v>
+        <v>14.423781974084</v>
       </c>
       <c r="S8">
-        <v>0.006878072813184428</v>
+        <v>0.3509505686941222</v>
       </c>
       <c r="T8">
-        <v>0.006878072813184428</v>
+        <v>0.3509505686941222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01839766666666666</v>
+        <v>1.506600666666667</v>
       </c>
       <c r="H9">
-        <v>0.05519299999999999</v>
+        <v>4.519802</v>
       </c>
       <c r="I9">
-        <v>0.01651998333425122</v>
+        <v>0.9879359430993913</v>
       </c>
       <c r="J9">
-        <v>0.01651998333425122</v>
+        <v>0.9879359430993914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7335039999999999</v>
+        <v>1.393294</v>
       </c>
       <c r="N9">
-        <v>2.200512</v>
+        <v>4.179882</v>
       </c>
       <c r="O9">
-        <v>0.3367084067543904</v>
+        <v>0.4652875658517374</v>
       </c>
       <c r="P9">
-        <v>0.3367084067543904</v>
+        <v>0.4652875658517374</v>
       </c>
       <c r="Q9">
-        <v>0.01349476209066666</v>
+        <v>2.099137669262667</v>
       </c>
       <c r="R9">
-        <v>0.121452858816</v>
+        <v>18.892239023364</v>
       </c>
       <c r="S9">
-        <v>0.005562417268084811</v>
+        <v>0.4596743101821563</v>
       </c>
       <c r="T9">
-        <v>0.005562417268084811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.7997520000000001</v>
-      </c>
-      <c r="H10">
-        <v>2.399256</v>
-      </c>
-      <c r="I10">
-        <v>0.7181285513489439</v>
-      </c>
-      <c r="J10">
-        <v>0.7181285513489438</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.2736056666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.820817</v>
-      </c>
-      <c r="O10">
-        <v>0.1255962177470146</v>
-      </c>
-      <c r="P10">
-        <v>0.1255962177470146</v>
-      </c>
-      <c r="Q10">
-        <v>0.2188166791280001</v>
-      </c>
-      <c r="R10">
-        <v>1.969350112152</v>
-      </c>
-      <c r="S10">
-        <v>0.09019422990557009</v>
-      </c>
-      <c r="T10">
-        <v>0.09019422990557008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.7997520000000001</v>
-      </c>
-      <c r="H11">
-        <v>2.399256</v>
-      </c>
-      <c r="I11">
-        <v>0.7181285513489439</v>
-      </c>
-      <c r="J11">
-        <v>0.7181285513489438</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.2643483333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.793045</v>
-      </c>
-      <c r="O11">
-        <v>0.1213467222330692</v>
-      </c>
-      <c r="P11">
-        <v>0.1213467222330692</v>
-      </c>
-      <c r="Q11">
-        <v>0.21141310828</v>
-      </c>
-      <c r="R11">
-        <v>1.90271797452</v>
-      </c>
-      <c r="S11">
-        <v>0.08714254584817667</v>
-      </c>
-      <c r="T11">
-        <v>0.08714254584817667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.7997520000000001</v>
-      </c>
-      <c r="H12">
-        <v>2.399256</v>
-      </c>
-      <c r="I12">
-        <v>0.7181285513489439</v>
-      </c>
-      <c r="J12">
-        <v>0.7181285513489438</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.9069966666666667</v>
-      </c>
-      <c r="N12">
-        <v>2.72099</v>
-      </c>
-      <c r="O12">
-        <v>0.4163486532655258</v>
-      </c>
-      <c r="P12">
-        <v>0.4163486532655259</v>
-      </c>
-      <c r="Q12">
-        <v>0.7253723981600001</v>
-      </c>
-      <c r="R12">
-        <v>6.528351583440001</v>
-      </c>
-      <c r="S12">
-        <v>0.2989918552256558</v>
-      </c>
-      <c r="T12">
-        <v>0.2989918552256558</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.7997520000000001</v>
-      </c>
-      <c r="H13">
-        <v>2.399256</v>
-      </c>
-      <c r="I13">
-        <v>0.7181285513489439</v>
-      </c>
-      <c r="J13">
-        <v>0.7181285513489438</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.7335039999999999</v>
-      </c>
-      <c r="N13">
-        <v>2.200512</v>
-      </c>
-      <c r="O13">
-        <v>0.3367084067543904</v>
-      </c>
-      <c r="P13">
-        <v>0.3367084067543904</v>
-      </c>
-      <c r="Q13">
-        <v>0.5866212910080001</v>
-      </c>
-      <c r="R13">
-        <v>5.279591619072</v>
-      </c>
-      <c r="S13">
-        <v>0.2417999203695413</v>
-      </c>
-      <c r="T13">
-        <v>0.2417999203695413</v>
+        <v>0.4596743101821564</v>
       </c>
     </row>
   </sheetData>
